--- a/one/EXCEL/PR. Final Project.xlsx
+++ b/one/EXCEL/PR. Final Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="17771" windowHeight="9000" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project Instructions" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,11 @@
     <sheet name="Total Amount by Date" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_Category">#N/A</definedName>
+    <definedName name="Slicer_Region">#N/A</definedName>
     <definedName name="Slicer_Month_Year">#N/A</definedName>
-    <definedName name="Slicer_Region">#N/A</definedName>
-    <definedName name="Slicer_Category">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="437">
   <si>
     <t>PR. Final Project - "Data Intelligence Dashboard"</t>
   </si>
@@ -2593,47 +2593,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Total Amount by Region.'!$A$4:$A$9</c:f>
+              <c:f>'Total Amount by Region.'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Central</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>North</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Amount by Region.'!$B$4:$B$9</c:f>
+              <c:f>'Total Amount by Region.'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41288.34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59288.39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50808.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36398.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41408.68</c:v>
+                  <c:v>39239.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3045,13 +3021,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>219</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>288</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3658,37 +3634,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>' Total Amount by Product_Name.'!$A$4:$A$14</c:f>
+              <c:f>' Total Amount by Product_Name.'!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Blender</c:v>
+                  <c:v>Headphones</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bookshelf</c:v>
+                  <c:v>Keyboard</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Coffee Maker</c:v>
+                  <c:v>Laptop</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Desk</c:v>
+                  <c:v>Monitor</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Headphones</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Monitor</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Office Chair</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Smartphone</c:v>
                 </c:pt>
               </c:strCache>
@@ -3696,39 +3657,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Total Amount by Product_Name.'!$B$4:$B$14</c:f>
+              <c:f>' Total Amount by Product_Name.'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5219.13</c:v>
+                  <c:v>1949.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15298.98</c:v>
+                  <c:v>1889.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3119.61</c:v>
+                  <c:v>12599.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23399.22</c:v>
+                  <c:v>5999.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7049.53</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8009.11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67499.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21999.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10399.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67199.04</c:v>
+                  <c:v>16799.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9388,7 +9334,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Name_count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="12" count="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="10">
         <n v="8"/>
         <n v="5"/>
         <n v="6"/>
@@ -9430,7 +9376,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Product_Count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="35" count="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="14" maxValue="35" count="9">
         <n v="26"/>
         <n v="29"/>
         <n v="35"/>
@@ -9450,7 +9396,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Quantity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
         <n v="3"/>
         <n v="5"/>
         <n v="2"/>
@@ -9459,7 +9405,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Unit_Price" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="899.99" count="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="59.99" maxValue="899.99" count="9">
         <n v="249.99"/>
         <n v="59.99"/>
         <n v="149.99"/>
@@ -9723,7 +9669,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Total_Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4499.95" count="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="59.99" maxValue="4499.95" count="44">
         <n v="749.97"/>
         <n v="179.97"/>
         <n v="749.95"/>
@@ -19873,7 +19819,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" showAll="0">
       <items count="251">
@@ -20522,9 +20468,9 @@
     </pivotField>
     <pivotField compact="0" showAll="0">
       <items count="4">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20563,11 +20509,11 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20867,21 +20813,9 @@
   <rowFields count="1">
     <field x="13"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -20904,7 +20838,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" showAll="0">
       <items count="251">
@@ -21553,9 +21487,9 @@
     </pivotField>
     <pivotField compact="0" showAll="0">
       <items count="4">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21594,11 +21528,11 @@
     </pivotField>
     <pivotField compact="0" showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21898,19 +21832,7 @@
   <rowFields count="1">
     <field x="7"/>
   </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="4"/>
     </i>
@@ -21922,9 +21844,6 @@
     </i>
     <i>
       <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i>
       <x v="9"/>
@@ -22599,9 +22518,9 @@
     </pivotField>
     <pivotField compact="0" showAll="0">
       <items count="4">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22640,11 +22559,11 @@
     </pivotField>
     <pivotField compact="0" showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23618,6 +23537,48 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Category" sourceName="Category">
+  <pivotTables>
+    <pivotTable tabId="6" name="PivotTable1"/>
+    <pivotTable tabId="4" name="PivotTable1"/>
+    <pivotTable tabId="5" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="1" s="0"/>
+        <i x="0" s="1"/>
+        <i x="2" s="0"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="6" name="PivotTable1"/>
+    <pivotTable tabId="4" name="PivotTable1"/>
+    <pivotTable tabId="5" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="5">
+        <i x="0" s="0"/>
+        <i x="4" s="0"/>
+        <i x="2" s="1"/>
+        <i x="1" s="0"/>
+        <i x="3" s="0"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Month_Year" sourceName="Month-Year">
   <pivotTables>
     <pivotTable tabId="10" name="PivotTable6"/>
@@ -23638,48 +23599,6 @@
         <i x="7" s="1"/>
         <i x="6" s="1"/>
         <i x="5" s="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst/>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region" sourceName="Region">
-  <pivotTables>
-    <pivotTable tabId="6" name="PivotTable1"/>
-    <pivotTable tabId="4" name="PivotTable1"/>
-    <pivotTable tabId="5" name="PivotTable1"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="5">
-        <i x="0" s="1"/>
-        <i x="4" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst/>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Category" sourceName="Category">
-  <pivotTables>
-    <pivotTable tabId="6" name="PivotTable1"/>
-    <pivotTable tabId="4" name="PivotTable1"/>
-    <pivotTable tabId="5" name="PivotTable1"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="3">
-        <i x="1" s="1"/>
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -50975,7 +50894,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -51007,8 +50926,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:S251"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="14.4" customHeight="1"/>
@@ -51583,7 +51502,7 @@
       </c>
       <c r="W8" s="6">
         <f ca="1">NOW()</f>
-        <v>45972.5890393518</v>
+        <v>45972.7750462963</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>64</v>
@@ -52217,11 +52136,11 @@
         <v>High-Value Customer</v>
       </c>
       <c r="V16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W16" t="str" cm="1">
-        <f t="array" ref="W16:W89">_xlfn._xlws.FILTER(E2:E251,P2:P251=V16,"Not Found")</f>
-        <v>Paul Baker</v>
+        <f t="array" ref="W16:W110">_xlfn._xlws.FILTER(E2:E251,P2:P251=V16,"Not Found")</f>
+        <v>Joseph Jackson</v>
       </c>
       <c r="AB16" s="9"/>
       <c r="AE16" t="str">
@@ -52298,7 +52217,7 @@
         <v>Other</v>
       </c>
       <c r="W17" t="str">
-        <v>Charles Allen</v>
+        <v>Kathleen Bennett</v>
       </c>
       <c r="AE17" t="str">
         <v>Robert Thomas</v>
@@ -52374,7 +52293,7 @@
         <v>Other</v>
       </c>
       <c r="W18" t="str">
-        <v>Kathleen Bennett</v>
+        <v>Michael Brown</v>
       </c>
       <c r="AB18" s="9"/>
       <c r="AE18" t="str">
@@ -52451,7 +52370,7 @@
         <v>Other</v>
       </c>
       <c r="W19" t="str">
-        <v>Michelle Rogers</v>
+        <v>Karen Hill</v>
       </c>
       <c r="Z19" s="10" t="s">
         <v>109</v>
@@ -52533,7 +52452,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W20" t="str">
-        <v>Maria Garcia</v>
+        <v>Peter Richardson</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>13</v>
@@ -52618,7 +52537,7 @@
         <v>Other</v>
       </c>
       <c r="W21" t="str">
-        <v>Barbara Young</v>
+        <v>Mark Carter</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>114</v>
@@ -52707,7 +52626,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W22" t="str">
-        <v>Susan Green</v>
+        <v>Virginia Sanders</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>118</v>
@@ -52796,7 +52715,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W23" t="str">
-        <v>Lisa Anderson</v>
+        <v>Mark Carter</v>
       </c>
       <c r="AE23" t="str">
         <v>George Adams</v>
@@ -52872,7 +52791,7 @@
         <v>Other</v>
       </c>
       <c r="W24" t="str">
-        <v>Patricia Moore</v>
+        <v>Linda Martin</v>
       </c>
       <c r="AE24" t="str">
         <v>Mark Carter</v>
@@ -52948,7 +52867,7 @@
         <v>Other</v>
       </c>
       <c r="W25" t="str">
-        <v>Lisa Anderson</v>
+        <v>Patricia Moore</v>
       </c>
       <c r="AE25" t="str">
         <v>Maria Garcia</v>
@@ -53024,7 +52943,7 @@
         <v>Other</v>
       </c>
       <c r="W26" t="str">
-        <v>Sharon Butler</v>
+        <v>Emma Wilson</v>
       </c>
       <c r="AA26" s="4" t="s">
         <v>131</v>
@@ -53105,7 +53024,7 @@
         <v>Other</v>
       </c>
       <c r="W27" t="str">
-        <v>Charles Allen</v>
+        <v>Kevin Scott</v>
       </c>
       <c r="AA27" s="11" t="str" cm="1">
         <f t="array" ref="AA27">INDEX(I:I,MATCH(MAX(J:J),J:J,0))</f>
@@ -53190,7 +53109,7 @@
         <v>Other</v>
       </c>
       <c r="W28" t="str">
-        <v>Raymond Ross</v>
+        <v>Steven Turner</v>
       </c>
       <c r="AE28" t="str">
         <v>Patricia Moore</v>
@@ -53266,7 +53185,7 @@
         <v>Other</v>
       </c>
       <c r="W29" t="str">
-        <v>Robert Thomas</v>
+        <v>Harry Morgan</v>
       </c>
       <c r="AE29" t="str">
         <v>Cynthia Price</v>
@@ -53342,7 +53261,7 @@
         <v>Other</v>
       </c>
       <c r="W30" t="str">
-        <v>Helen Roberts</v>
+        <v>Michael Brown</v>
       </c>
       <c r="AE30" t="str">
         <v>Nancy Collins</v>
@@ -53418,7 +53337,7 @@
         <v>Other</v>
       </c>
       <c r="W31" t="str">
-        <v>David Martinez</v>
+        <v>Lisa Anderson</v>
       </c>
       <c r="AE31" t="str">
         <v>Linda Martin</v>
@@ -53493,7 +53412,7 @@
         <v>Other</v>
       </c>
       <c r="W32" t="str">
-        <v>Margaret Wright</v>
+        <v>Patricia Moore</v>
       </c>
       <c r="AE32" t="str">
         <v>Helen Roberts</v>
@@ -53568,7 +53487,7 @@
         <v>Other</v>
       </c>
       <c r="W33" t="str">
-        <v>Frank Torres</v>
+        <v>Edward Mitchell</v>
       </c>
       <c r="AE33" t="str">
         <v>Edward Mitchell</v>
@@ -53643,7 +53562,7 @@
         <v>Other</v>
       </c>
       <c r="W34" t="str">
-        <v>Gerald Murphy</v>
+        <v>Betty Campbell</v>
       </c>
       <c r="AE34" t="str">
         <v>Lisa Anderson</v>
@@ -53718,7 +53637,7 @@
         <v>Other</v>
       </c>
       <c r="W35" t="str">
-        <v>Daniel King</v>
+        <v>Kevin Scott</v>
       </c>
       <c r="AE35" t="str">
         <v>Emma Wilson</v>
@@ -53793,7 +53712,7 @@
         <v>Other</v>
       </c>
       <c r="W36" t="str">
-        <v>Mark Carter</v>
+        <v>Kathleen Bennett</v>
       </c>
       <c r="AE36" t="str">
         <v>Steven Turner</v>
@@ -53868,7 +53787,7 @@
         <v>Other</v>
       </c>
       <c r="W37" t="str">
-        <v>Daniel King</v>
+        <v>Patricia Moore</v>
       </c>
       <c r="AE37" t="str">
         <v>Jennifer Taylor</v>
@@ -53943,7 +53862,7 @@
         <v>Other</v>
       </c>
       <c r="W38" t="str">
-        <v>Elizabeth Hall</v>
+        <v>Emma Wilson</v>
       </c>
       <c r="AE38" t="str">
         <v>Harry Morgan</v>
@@ -54018,7 +53937,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W39" t="str">
-        <v>Mark Carter</v>
+        <v>Michael Brown</v>
       </c>
       <c r="AE39" t="str">
         <v>Daniel King</v>
@@ -54093,7 +54012,7 @@
         <v>Other</v>
       </c>
       <c r="W40" t="str">
-        <v>Gerald Murphy</v>
+        <v>Barbara Young</v>
       </c>
       <c r="AE40" t="str">
         <v>Sharon Butler</v>
@@ -54168,7 +54087,7 @@
         <v>Other</v>
       </c>
       <c r="W41" t="str">
-        <v>Nancy Collins</v>
+        <v>Frank Torres</v>
       </c>
       <c r="AE41" t="str">
         <v>Sarah Davis</v>
@@ -54243,7 +54162,7 @@
         <v>Other</v>
       </c>
       <c r="W42" t="str">
-        <v>Cynthia Price</v>
+        <v>Peter Richardson</v>
       </c>
       <c r="AE42" t="str">
         <v>Betty Campbell</v>
@@ -54318,7 +54237,7 @@
         <v>Other</v>
       </c>
       <c r="W43" t="str">
-        <v>Jennifer Taylor</v>
+        <v>Karen Hill</v>
       </c>
       <c r="AE43" t="str">
         <v>Julie Foster</v>
@@ -54393,7 +54312,7 @@
         <v>Other</v>
       </c>
       <c r="W44" t="str">
-        <v>Charles Allen</v>
+        <v>Barbara Young</v>
       </c>
       <c r="AE44" t="str">
         <v>Raymond Ross</v>
@@ -54468,7 +54387,7 @@
         <v>Other</v>
       </c>
       <c r="W45" t="str">
-        <v>Ruth Brooks</v>
+        <v>Mark Carter</v>
       </c>
       <c r="AE45" t="str">
         <v>David Martinez</v>
@@ -54543,7 +54462,7 @@
         <v>Other</v>
       </c>
       <c r="W46" t="str">
-        <v>Karen Hill</v>
+        <v>David Martinez</v>
       </c>
       <c r="AE46" t="str">
         <v>Margaret Wright</v>
@@ -54618,7 +54537,7 @@
         <v>Other</v>
       </c>
       <c r="W47" t="str">
-        <v>Sarah Davis</v>
+        <v>Margaret Wright</v>
       </c>
       <c r="AE47" t="str">
         <v>Frank Torres</v>
@@ -54693,7 +54612,7 @@
         <v>Other</v>
       </c>
       <c r="W48" t="str">
-        <v>Peter Richardson</v>
+        <v>Karen Hill</v>
       </c>
       <c r="AE48" t="str">
         <v>Gerald Murphy</v>
@@ -54768,7 +54687,7 @@
         <v>Other</v>
       </c>
       <c r="W49" t="str">
-        <v>Linda Martin</v>
+        <v>Betty Campbell</v>
       </c>
       <c r="AE49" t="str">
         <v>Elizabeth Hall</v>
@@ -54843,7 +54762,7 @@
         <v>Other</v>
       </c>
       <c r="W50" t="str">
-        <v>Patricia Moore</v>
+        <v>Mark Carter</v>
       </c>
       <c r="AE50" t="str">
         <v>Lawrence Reed</v>
@@ -54918,7 +54837,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W51" t="str">
-        <v>Maria Garcia</v>
+        <v>Lawrence Reed</v>
       </c>
       <c r="AE51" t="str">
         <v>Carol Evans</v>
@@ -54993,7 +54912,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W52" t="str">
-        <v>George Adams</v>
+        <v>Gerald Murphy</v>
       </c>
       <c r="AE52" t="str">
         <v>Sandra Phillips</v>
@@ -55068,7 +54987,7 @@
         <v>Other</v>
       </c>
       <c r="W53" t="str">
-        <v>Raymond Ross</v>
+        <v>Carol Evans</v>
       </c>
       <c r="AE53" t="str">
         <v>Ruth Brooks</v>
@@ -55143,7 +55062,7 @@
         <v>Other</v>
       </c>
       <c r="W54" t="str">
-        <v>Lawrence Reed</v>
+        <v>Sandra Phillips</v>
       </c>
       <c r="AE54" t="str">
         <v>William White</v>
@@ -55218,7 +55137,7 @@
         <v>Other</v>
       </c>
       <c r="W55" t="str">
-        <v>Lawrence Reed</v>
+        <v>Carol Evans</v>
       </c>
       <c r="AE55" t="str">
         <v>Richard Lee</v>
@@ -55293,7 +55212,7 @@
         <v>Other</v>
       </c>
       <c r="W56" t="str">
-        <v>Kathleen Bennett</v>
+        <v>Paul Baker</v>
       </c>
       <c r="AE56" t="str">
         <v>Douglas Watson</v>
@@ -55368,7 +55287,7 @@
         <v>Other</v>
       </c>
       <c r="W57" t="str">
-        <v>Sarah Davis</v>
+        <v>Lawrence Reed</v>
       </c>
       <c r="AE57" t="str">
         <v>James Johnson</v>
@@ -55443,7 +55362,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W58" t="str">
-        <v>Peter Richardson</v>
+        <v>Steven Turner</v>
       </c>
       <c r="AE58" t="str">
         <v>Arthur Edwards</v>
@@ -55518,7 +55437,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W59" t="str">
-        <v>Sarah Davis</v>
+        <v>Dorothy Nelson</v>
       </c>
       <c r="AE59" t="str">
         <v>John Smith</v>
@@ -55593,7 +55512,7 @@
         <v>Other</v>
       </c>
       <c r="W60" t="str">
-        <v>Sandra Phillips</v>
+        <v>Kathleen Bennett</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:23">
@@ -55661,7 +55580,7 @@
         <v>Other</v>
       </c>
       <c r="W61" t="str">
-        <v>Douglas Watson</v>
+        <v>Daniel King</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="1:23">
@@ -55729,7 +55648,7 @@
         <v>Other</v>
       </c>
       <c r="W62" t="str">
-        <v>Peter Richardson</v>
+        <v>Michael Brown</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1" spans="1:23">
@@ -55797,7 +55716,7 @@
         <v>Other</v>
       </c>
       <c r="W63" t="str">
-        <v>Emma Wilson</v>
+        <v>Sandra Phillips</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:23">
@@ -55865,7 +55784,7 @@
         <v>Other</v>
       </c>
       <c r="W64" t="str">
-        <v>Michael Brown</v>
+        <v>Elizabeth Hall</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="1:23">
@@ -55933,7 +55852,7 @@
         <v>Other</v>
       </c>
       <c r="W65" t="str">
-        <v>Kevin Scott</v>
+        <v>Betty Campbell</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:23">
@@ -56001,7 +55920,7 @@
         <v>Other</v>
       </c>
       <c r="W66" t="str">
-        <v>Michael Brown</v>
+        <v>Patricia Moore</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1" spans="1:23">
@@ -56069,7 +55988,7 @@
         <v>Other</v>
       </c>
       <c r="W67" t="str">
-        <v>Helen Roberts</v>
+        <v>Maria Garcia</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="1:23">
@@ -56137,7 +56056,7 @@
         <v>Other</v>
       </c>
       <c r="W68" t="str">
-        <v>Virginia Sanders</v>
+        <v>Margaret Wright</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="1:23">
@@ -56205,7 +56124,7 @@
         <v>Other</v>
       </c>
       <c r="W69" t="str">
-        <v>Douglas Watson</v>
+        <v>Paul Baker</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="1:23">
@@ -56273,7 +56192,7 @@
         <v>Other</v>
       </c>
       <c r="W70" t="str">
-        <v>Mark Carter</v>
+        <v>Edward Mitchell</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="1:23">
@@ -56341,7 +56260,7 @@
         <v>Other</v>
       </c>
       <c r="W71" t="str">
-        <v>Sandra Phillips</v>
+        <v>Kevin Scott</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="1:23">
@@ -56409,7 +56328,7 @@
         <v>Other</v>
       </c>
       <c r="W72" t="str">
-        <v>Elizabeth Hall</v>
+        <v>Charles Allen</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="1:23">
@@ -56477,7 +56396,7 @@
         <v>Other</v>
       </c>
       <c r="W73" t="str">
-        <v>Lisa Anderson</v>
+        <v>Joseph Jackson</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="1:23">
@@ -56613,7 +56532,7 @@
         <v>Other</v>
       </c>
       <c r="W75" t="str">
-        <v>Edward Mitchell</v>
+        <v>Dorothy Nelson</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="1:23">
@@ -56681,7 +56600,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W76" t="str">
-        <v>Virginia Sanders</v>
+        <v>Nancy Collins</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1" spans="1:23">
@@ -56749,7 +56668,7 @@
         <v>Other</v>
       </c>
       <c r="W77" t="str">
-        <v>Kevin Scott</v>
+        <v>James Johnson</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" spans="1:23">
@@ -56817,7 +56736,7 @@
         <v>Other</v>
       </c>
       <c r="W78" t="str">
-        <v>Paul Baker</v>
+        <v>Steven Turner</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1" spans="1:23">
@@ -56885,7 +56804,7 @@
         <v>Other</v>
       </c>
       <c r="W79" t="str">
-        <v>Sharon Butler</v>
+        <v>Linda Martin</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1" spans="1:23">
@@ -56953,7 +56872,7 @@
         <v>Other</v>
       </c>
       <c r="W80" t="str">
-        <v>Virginia Sanders</v>
+        <v>Robert Thomas</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1" spans="1:23">
@@ -57021,7 +56940,7 @@
         <v>Other</v>
       </c>
       <c r="W81" t="str">
-        <v>Charles Allen</v>
+        <v>Nancy Collins</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:23">
@@ -57089,7 +57008,7 @@
         <v>Other</v>
       </c>
       <c r="W82" t="str">
-        <v>Frank Torres</v>
+        <v>Mark Carter</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1" spans="1:23">
@@ -57157,7 +57076,7 @@
         <v>Other</v>
       </c>
       <c r="W83" t="str">
-        <v>Dorothy Nelson</v>
+        <v>Daniel King</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1" spans="1:23">
@@ -57225,7 +57144,7 @@
         <v>High-Value Customer</v>
       </c>
       <c r="W84" t="str">
-        <v>Cynthia Price</v>
+        <v>Lisa Anderson</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1" spans="1:23">
@@ -57293,7 +57212,7 @@
         <v>Other</v>
       </c>
       <c r="W85" t="str">
-        <v>Margaret Wright</v>
+        <v>Karen Hill</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" spans="1:23">
@@ -57361,7 +57280,7 @@
         <v>Other</v>
       </c>
       <c r="W86" t="str">
-        <v>Virginia Sanders</v>
+        <v>Michelle Rogers</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1" spans="1:23">
@@ -57429,7 +57348,7 @@
         <v>Other</v>
       </c>
       <c r="W87" t="str">
-        <v>Robert Thomas</v>
+        <v>Betty Campbell</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1" spans="1:23">
@@ -57497,7 +57416,7 @@
         <v>Other</v>
       </c>
       <c r="W88" t="str">
-        <v>Douglas Watson</v>
+        <v>Dorothy Nelson</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1" spans="1:23">
@@ -57565,10 +57484,10 @@
         <v>Other</v>
       </c>
       <c r="W89" t="str">
-        <v>Lawrence Reed</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1" spans="1:19">
+        <v>Douglas Watson</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" spans="1:23">
       <c r="A90" t="s">
         <v>239</v>
       </c>
@@ -57632,8 +57551,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W90" t="str">
+        <v>Karen Hill</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1" spans="1:23">
       <c r="A91" t="s">
         <v>240</v>
       </c>
@@ -57697,8 +57619,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W91" t="str">
+        <v>Michael Brown</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1" spans="1:23">
       <c r="A92" t="s">
         <v>241</v>
       </c>
@@ -57762,8 +57687,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W92" t="str">
+        <v>Ruth Brooks</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1" spans="1:23">
       <c r="A93" t="s">
         <v>242</v>
       </c>
@@ -57827,8 +57755,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W93" t="str">
+        <v>Nancy Collins</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1" spans="1:23">
       <c r="A94" t="s">
         <v>243</v>
       </c>
@@ -57892,8 +57823,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W94" t="str">
+        <v>Richard Lee</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1" spans="1:23">
       <c r="A95" t="s">
         <v>244</v>
       </c>
@@ -57957,8 +57891,11 @@
         <f t="shared" si="13"/>
         <v>High-Value Customer</v>
       </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W95" t="str">
+        <v>Edward Mitchell</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1" spans="1:23">
       <c r="A96" t="s">
         <v>245</v>
       </c>
@@ -58022,8 +57959,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W96" t="str">
+        <v>Frank Torres</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1" spans="1:23">
       <c r="A97" t="s">
         <v>246</v>
       </c>
@@ -58087,8 +58027,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W97" t="str">
+        <v>Ruth Brooks</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1" spans="1:23">
       <c r="A98" t="s">
         <v>247</v>
       </c>
@@ -58152,8 +58095,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W98" t="str">
+        <v>Arthur Edwards</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1" spans="1:23">
       <c r="A99" t="s">
         <v>250</v>
       </c>
@@ -58217,8 +58163,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W99" t="str">
+        <v>Elizabeth Hall</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1" spans="1:23">
       <c r="A100" t="s">
         <v>251</v>
       </c>
@@ -58282,8 +58231,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W100" t="str">
+        <v>Steven Turner</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1" spans="1:23">
       <c r="A101" t="s">
         <v>252</v>
       </c>
@@ -58347,8 +58299,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W101" t="str">
+        <v>Lawrence Reed</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1" spans="1:23">
       <c r="A102" t="s">
         <v>255</v>
       </c>
@@ -58412,8 +58367,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W102" t="str">
+        <v>Dennis Gray</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1" spans="1:23">
       <c r="A103" t="s">
         <v>258</v>
       </c>
@@ -58477,8 +58435,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W103" t="str">
+        <v>Paul Baker</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1" spans="1:23">
       <c r="A104" t="s">
         <v>259</v>
       </c>
@@ -58542,8 +58503,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W104" t="str">
+        <v>Lawrence Reed</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1" spans="1:23">
       <c r="A105" t="s">
         <v>260</v>
       </c>
@@ -58607,8 +58571,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W105" t="str">
+        <v>Harry Morgan</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1" spans="1:23">
       <c r="A106" t="s">
         <v>261</v>
       </c>
@@ -58672,8 +58639,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W106" t="str">
+        <v>Emma Wilson</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1" spans="1:23">
       <c r="A107" t="s">
         <v>262</v>
       </c>
@@ -58737,8 +58707,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W107" t="str">
+        <v>Sharon Butler</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1" spans="1:23">
       <c r="A108" t="s">
         <v>263</v>
       </c>
@@ -58802,8 +58775,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W108" t="str">
+        <v>Paul Baker</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1" spans="1:23">
       <c r="A109" t="s">
         <v>264</v>
       </c>
@@ -58867,8 +58843,11 @@
         <f t="shared" si="13"/>
         <v>Other</v>
       </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1" spans="1:19">
+      <c r="W109" t="str">
+        <v>Karen Hill</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" spans="1:23">
       <c r="A110" t="s">
         <v>265</v>
       </c>
@@ -58931,6 +58910,9 @@
       <c r="S110" t="str">
         <f t="shared" si="13"/>
         <v>Other</v>
+      </c>
+      <c r="W110" t="str">
+        <v>Steven Turner</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:19">
@@ -69027,13 +69009,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222"/>
     <col min="2" max="2" width="23.7777777777778"/>
@@ -69049,50 +69031,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>41288.34</v>
+        <v>39239.04</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="B5">
-        <v>59288.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>50808.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7">
-        <v>36398.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8">
-        <v>41408.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B9">
-        <v>229192.47</v>
+        <v>39239.04</v>
       </c>
     </row>
   </sheetData>
@@ -69104,7 +69054,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -69126,90 +69076,50 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>5219.13</v>
+        <v>1949.87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B5">
-        <v>15298.98</v>
+        <v>1889.79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>3119.61</v>
+        <v>12599.86</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>23399.22</v>
+        <v>5999.76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B8">
-        <v>7049.53</v>
+        <v>16799.76</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="B9">
-        <v>8009.11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10">
-        <v>67499.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>21999.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12">
-        <v>10399.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13">
-        <v>67199.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>422</v>
-      </c>
-      <c r="B14">
-        <v>229192.47</v>
+        <v>39239.04</v>
       </c>
     </row>
   </sheetData>
@@ -69223,7 +69133,7 @@
   <sheetPr/>
   <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -69246,7 +69156,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>219</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -69254,7 +69164,7 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>288</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -69262,7 +69172,7 @@
         <v>43</v>
       </c>
       <c r="B6">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -69270,7 +69180,7 @@
         <v>422</v>
       </c>
       <c r="B7">
-        <v>753</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
